--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.79229999999999</v>
+        <v>6.041599999999989</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.697999999999993</v>
+        <v>-8.461999999999993</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.8293</v>
+        <v>12.09749999999999</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.739000000000003</v>
+        <v>-8.663900000000002</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,10 +624,10 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.502900000000004</v>
+        <v>-8.47000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>13.03839999999999</v>
+        <v>13.30379999999999</v>
       </c>
     </row>
     <row r="12">
@@ -788,16 +788,16 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.610299999999995</v>
+        <v>5.620899999999993</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.4171</v>
+        <v>-7.498400000000003</v>
       </c>
       <c r="E21" t="n">
-        <v>13.59549999999999</v>
+        <v>13.66989999999999</v>
       </c>
     </row>
     <row r="22">
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>6.191199999999996</v>
+        <v>6.506899999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.521199999999993</v>
+        <v>5.724499999999995</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
